--- a/data/trans_orig/P36B17_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B17_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{328BB1FD-0E3D-4598-B83C-088EE8FE4B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C13243D-3FD6-4760-80FA-983FE079EE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{2D4FF43C-A469-43F5-B0F8-8C46FBD05FBB}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{39CB733F-D313-42B5-81C3-53A9CFAD37E4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="277">
   <si>
     <t>Población según el número de veces a la semana que consume patatas fritas y aperitivos salados en 2023 (Tasa respuesta: 99,73%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>28,67%</t>
   </si>
   <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
   </si>
   <si>
     <t>27,75%</t>
   </si>
   <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
   </si>
   <si>
     <t>28,16%</t>
   </si>
   <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>34,22%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -104,28 +104,28 @@
     <t>32,67%</t>
   </si>
   <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
   </si>
   <si>
     <t>35,37%</t>
   </si>
   <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
   </si>
   <si>
     <t>34,18%</t>
   </si>
   <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
   </si>
   <si>
     <t>Una/dos veces a la semana</t>
@@ -134,733 +134,736 @@
     <t>29,43%</t>
   </si>
   <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
   </si>
   <si>
     <t>31,9%</t>
   </si>
   <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>28,07%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>33,88%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>37,69%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>28,92%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>26,93%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>24,12%</t>
+  </si>
+  <si>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>35,63%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>30,32%</t>
+  </si>
+  <si>
+    <t>35,87%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>23,36%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>58,74%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>38,33%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>36,5%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>32,61%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>32,77%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>23,47%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
     <t>25,58%</t>
   </si>
   <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
+    <t>23,72%</t>
+  </si>
+  <si>
+    <t>31,14%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>38,26%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>33,23%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>34,51%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
   </si>
   <si>
     <t>6,06%</t>
   </si>
   <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
+    <t>8,36%</t>
   </si>
   <si>
     <t>4,8%</t>
   </si>
   <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
   </si>
   <si>
     <t>4,11%</t>
   </si>
   <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
   </si>
   <si>
     <t>2,63%</t>
   </si>
   <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1275,7 +1278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E1EF5A2-A40F-4680-A728-10FCDAEFC4D7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5115AEA-BF2D-4875-99E0-3643860BA246}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1585,16 +1588,16 @@
         <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>2</v>
@@ -1603,13 +1606,13 @@
         <v>2034</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1618,13 +1621,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -1633,13 +1636,13 @@
         <v>2034</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1654,13 +1657,13 @@
         <v>101194</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H9" s="7">
         <v>238</v>
@@ -1669,13 +1672,13 @@
         <v>127830</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M9" s="7">
         <v>355</v>
@@ -1684,18 +1687,18 @@
         <v>229024</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1707,13 +1710,13 @@
         <v>131021</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>342</v>
@@ -1722,13 +1725,13 @@
         <v>172751</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>519</v>
@@ -1737,13 +1740,13 @@
         <v>303771</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1758,13 +1761,13 @@
         <v>173634</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H11" s="7">
         <v>355</v>
@@ -1773,13 +1776,13 @@
         <v>220540</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>557</v>
@@ -1788,13 +1791,13 @@
         <v>394174</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1809,13 +1812,13 @@
         <v>182559</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>239</v>
@@ -1824,13 +1827,13 @@
         <v>156855</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>419</v>
@@ -1839,13 +1842,13 @@
         <v>339414</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1860,13 +1863,13 @@
         <v>40044</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
@@ -1875,13 +1878,13 @@
         <v>33556</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M13" s="7">
         <v>78</v>
@@ -1890,19 +1893,19 @@
         <v>73601</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>16</v>
@@ -1911,13 +1914,13 @@
         <v>19831</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -1926,13 +1929,13 @@
         <v>6975</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M14" s="7">
         <v>27</v>
@@ -1962,13 +1965,13 @@
         <v>547089</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H15" s="7">
         <v>991</v>
@@ -1977,13 +1980,13 @@
         <v>590677</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M15" s="7">
         <v>1600</v>
@@ -1992,13 +1995,13 @@
         <v>1137766</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2015,13 +2018,13 @@
         <v>215408</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H16" s="7">
         <v>421</v>
@@ -2030,13 +2033,13 @@
         <v>263428</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M16" s="7">
         <v>670</v>
@@ -2045,13 +2048,13 @@
         <v>478836</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2066,13 +2069,13 @@
         <v>298483</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>588</v>
@@ -2081,10 +2084,10 @@
         <v>404699</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>16</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>117</v>
@@ -2138,7 +2141,7 @@
         <v>125</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>126</v>
+        <v>16</v>
       </c>
       <c r="M18" s="7">
         <v>750</v>
@@ -2147,13 +2150,13 @@
         <v>702680</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2168,13 +2171,13 @@
         <v>78024</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H19" s="7">
         <v>52</v>
@@ -2183,13 +2186,13 @@
         <v>44998</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M19" s="7">
         <v>117</v>
@@ -2198,19 +2201,19 @@
         <v>123022</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>19</v>
@@ -2219,13 +2222,13 @@
         <v>75493</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F20" s="7" t="s">
-        <v>140</v>
-      </c>
       <c r="G20" s="7" t="s">
-        <v>141</v>
+        <v>82</v>
       </c>
       <c r="H20" s="7">
         <v>18</v>
@@ -2234,13 +2237,13 @@
         <v>13999</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M20" s="7">
         <v>37</v>
@@ -2249,13 +2252,13 @@
         <v>89492</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2270,13 +2273,13 @@
         <v>1039248</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H21" s="7">
         <v>1514</v>
@@ -2285,13 +2288,13 @@
         <v>1057963</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M21" s="7">
         <v>2478</v>
@@ -2300,18 +2303,18 @@
         <v>2097212</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2323,13 +2326,13 @@
         <v>193365</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>325</v>
@@ -2338,13 +2341,13 @@
         <v>324372</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>527</v>
@@ -2353,13 +2356,13 @@
         <v>517737</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2374,13 +2377,13 @@
         <v>248302</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H23" s="7">
         <v>358</v>
@@ -2389,13 +2392,13 @@
         <v>257168</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M23" s="7">
         <v>587</v>
@@ -2404,13 +2407,13 @@
         <v>505469</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2425,13 +2428,13 @@
         <v>234117</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="H24" s="7">
         <v>301</v>
@@ -2440,13 +2443,13 @@
         <v>237926</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="M24" s="7">
         <v>505</v>
@@ -2455,13 +2458,13 @@
         <v>472043</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2476,13 +2479,13 @@
         <v>44338</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H25" s="7">
         <v>49</v>
@@ -2491,13 +2494,13 @@
         <v>40951</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M25" s="7">
         <v>85</v>
@@ -2506,19 +2509,19 @@
         <v>85289</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>5</v>
@@ -2527,13 +2530,13 @@
         <v>8651</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H26" s="7">
         <v>14</v>
@@ -2542,13 +2545,13 @@
         <v>13954</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M26" s="7">
         <v>19</v>
@@ -2557,13 +2560,13 @@
         <v>22605</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2578,13 +2581,13 @@
         <v>728772</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H27" s="7">
         <v>1047</v>
@@ -2593,13 +2596,13 @@
         <v>874371</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M27" s="7">
         <v>1723</v>
@@ -2608,18 +2611,18 @@
         <v>1603142</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2631,13 +2634,13 @@
         <v>296036</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>196</v>
       </c>
       <c r="H28" s="7">
         <v>583</v>
@@ -2646,13 +2649,13 @@
         <v>386132</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M28" s="7">
         <v>913</v>
@@ -2661,13 +2664,13 @@
         <v>682168</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2682,13 +2685,13 @@
         <v>311263</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="H29" s="7">
         <v>548</v>
@@ -2697,13 +2700,13 @@
         <v>392712</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M29" s="7">
         <v>877</v>
@@ -2712,13 +2715,13 @@
         <v>703975</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2733,13 +2736,13 @@
         <v>254997</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>214</v>
+        <v>171</v>
       </c>
       <c r="H30" s="7">
         <v>350</v>
@@ -2748,13 +2751,13 @@
         <v>295213</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>31</v>
+        <v>214</v>
       </c>
       <c r="M30" s="7">
         <v>612</v>
@@ -2763,13 +2766,13 @@
         <v>550210</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2784,13 +2787,13 @@
         <v>69386</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H31" s="7">
         <v>61</v>
@@ -2799,13 +2802,13 @@
         <v>56404</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M31" s="7">
         <v>116</v>
@@ -2814,19 +2817,19 @@
         <v>125790</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>226</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7">
         <v>29</v>
@@ -2835,13 +2838,13 @@
         <v>32842</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>45</v>
+        <v>228</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>227</v>
+        <v>94</v>
       </c>
       <c r="H32" s="7">
         <v>16</v>
@@ -2850,13 +2853,13 @@
         <v>15207</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="K32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M32" s="7">
         <v>45</v>
@@ -2865,13 +2868,13 @@
         <v>48048</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="P32" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2886,13 +2889,13 @@
         <v>964524</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H33" s="7">
         <v>1558</v>
@@ -2901,13 +2904,13 @@
         <v>1145668</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M33" s="7">
         <v>2563</v>
@@ -2916,13 +2919,13 @@
         <v>2110192</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2939,13 +2942,13 @@
         <v>864839</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>35</v>
+        <v>235</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>236</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>237</v>
+        <v>194</v>
       </c>
       <c r="H34" s="7">
         <v>1743</v>
@@ -2954,13 +2957,13 @@
         <v>1182155</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="K34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>240</v>
       </c>
       <c r="M34" s="7">
         <v>2737</v>
@@ -2969,13 +2972,13 @@
         <v>2046994</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P34" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="P34" s="7" t="s">
-        <v>242</v>
-      </c>
       <c r="Q34" s="7" t="s">
-        <v>243</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2990,13 +2993,13 @@
         <v>1064746</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="H35" s="7">
         <v>1940</v>
@@ -3005,13 +3008,13 @@
         <v>1320327</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="M35" s="7">
         <v>3058</v>
@@ -3020,10 +3023,10 @@
         <v>2385073</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>250</v>
@@ -3074,10 +3077,10 @@
         <v>257</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3092,13 +3095,13 @@
         <v>239094</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H37" s="7">
         <v>214</v>
@@ -3107,13 +3110,13 @@
         <v>182282</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M37" s="7">
         <v>412</v>
@@ -3122,19 +3125,19 @@
         <v>421377</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C38" s="7">
         <v>71</v>
@@ -3143,13 +3146,13 @@
         <v>138851</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H38" s="7">
         <v>59</v>
@@ -3158,13 +3161,13 @@
         <v>50135</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M38" s="7">
         <v>130</v>
@@ -3173,13 +3176,13 @@
         <v>188986</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3194,13 +3197,13 @@
         <v>3380826</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H39" s="7">
         <v>5348</v>
@@ -3209,13 +3212,13 @@
         <v>3796510</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M39" s="7">
         <v>8719</v>
@@ -3224,18 +3227,18 @@
         <v>7177336</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B17_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B17_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C13243D-3FD6-4760-80FA-983FE079EE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6158815B-84D4-4FBF-8031-AEBC9A0BBD2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{39CB733F-D313-42B5-81C3-53A9CFAD37E4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CB21A141-E6C0-4720-99A8-C25337B2915F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nunca o casi nunca</t>
@@ -215,7 +215,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>23,95%</t>
@@ -347,7 +347,7 @@
     <t>3,5%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>17,12%</t>
@@ -476,7 +476,7 @@
     <t>13,07%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>26,53%</t>
@@ -1278,7 +1278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5115AEA-BF2D-4875-99E0-3643860BA246}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CCC742A-DDA6-427D-A833-A09B6B15A1CF}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P36B17_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B17_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6158815B-84D4-4FBF-8031-AEBC9A0BBD2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A827F8A6-59E6-4855-963C-A0B2C2B1997C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{CB21A141-E6C0-4720-99A8-C25337B2915F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FFD442A8-33FA-41DF-AA4B-2D64BBEC97A2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="276">
   <si>
     <t>Población según el número de veces a la semana que consume patatas fritas y aperitivos salados en 2023 (Tasa respuesta: 99,73%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>28,67%</t>
   </si>
   <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>37,7%</t>
   </si>
   <si>
     <t>27,75%</t>
   </si>
   <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
+    <t>22,03%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
   </si>
   <si>
     <t>28,16%</t>
   </si>
   <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>34,22%</t>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
   </si>
   <si>
     <t>Menos de 1 vez semana</t>
@@ -104,28 +104,28 @@
     <t>32,67%</t>
   </si>
   <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
   </si>
   <si>
     <t>35,37%</t>
   </si>
   <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
+    <t>29,26%</t>
+  </si>
+  <si>
+    <t>42,34%</t>
   </si>
   <si>
     <t>34,18%</t>
   </si>
   <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
   </si>
   <si>
     <t>Una/dos veces a la semana</t>
@@ -134,25 +134,25 @@
     <t>29,43%</t>
   </si>
   <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>40,51%</t>
   </si>
   <si>
     <t>31,9%</t>
   </si>
   <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
   </si>
   <si>
     <t>30,81%</t>
   </si>
   <si>
-    <t>25,33%</t>
+    <t>25,15%</t>
   </si>
   <si>
     <t>37,22%</t>
@@ -164,28 +164,25 @@
     <t>7,22%</t>
   </si>
   <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
   </si>
   <si>
     <t>4,99%</t>
   </si>
   <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
   </si>
   <si>
     <t>5,97%</t>
   </si>
   <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
+    <t>9,87%</t>
   </si>
   <si>
     <t>A diario</t>
@@ -197,7 +194,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>8,07%</t>
+    <t>8,15%</t>
   </si>
   <si>
     <t>0%</t>
@@ -209,661 +206,661 @@
     <t>0,89%</t>
   </si>
   <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>29,37%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>34,16%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>20,73%</t>
+  </si>
+  <si>
+    <t>17,03%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>28,72%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>32,39%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>30,4%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>35,78%</t>
+  </si>
+  <si>
+    <t>30,23%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>34,01%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>30,67%</t>
+  </si>
+  <si>
+    <t>35,91%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
     <t>3,2%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>28,07%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>37,69%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>28,92%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>26,93%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>27,19%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>24,12%</t>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>26,53%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>37,1%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>47,4%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>38,16%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>27,21%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
   </si>
   <si>
     <t>32,35%</t>
   </si>
   <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>35,63%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>30,32%</t>
-  </si>
-  <si>
-    <t>35,87%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>33,82%</t>
+  </si>
+  <si>
+    <t>33,7%</t>
+  </si>
+  <si>
+    <t>30,96%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>32,33%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>36,96%</t>
+  </si>
+  <si>
+    <t>33,36%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>29,32%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>26,07%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
   </si>
   <si>
     <t>3,15%</t>
   </si>
   <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>23,36%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>58,74%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>38,33%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>36,5%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>32,61%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>32,77%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>23,47%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>23,72%</t>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
   </si>
   <si>
     <t>31,14%</t>
   </si>
   <si>
-    <t>28,57%</t>
-  </si>
-  <si>
-    <t>38,26%</t>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
   </si>
   <si>
     <t>28,52%</t>
   </si>
   <si>
-    <t>26,96%</t>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
   </si>
   <si>
     <t>31,49%</t>
   </si>
   <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
   </si>
   <si>
     <t>34,78%</t>
   </si>
   <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>36,56%</t>
+    <t>31,25%</t>
   </si>
   <si>
     <t>33,23%</t>
   </si>
   <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>34,51%</t>
+    <t>34,56%</t>
   </si>
   <si>
     <t>31,75%</t>
   </si>
   <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
+    <t>29,71%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
   </si>
   <si>
     <t>27,96%</t>
   </si>
   <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
   </si>
   <si>
     <t>29,75%</t>
   </si>
   <si>
-    <t>27,98%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
+    <t>30,98%</t>
   </si>
   <si>
     <t>7,07%</t>
   </si>
   <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
   </si>
   <si>
     <t>4,8%</t>
   </si>
   <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
   </si>
   <si>
     <t>4,11%</t>
   </si>
   <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
   </si>
   <si>
     <t>2,63%</t>
   </si>
   <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1278,7 +1275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CCC742A-DDA6-427D-A833-A09B6B15A1CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87129A1-2861-430F-9F20-7AE943BE7199}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1588,16 +1585,16 @@
         <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>48</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="7">
         <v>2</v>
@@ -1606,13 +1603,13 @@
         <v>2034</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1621,13 +1618,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="M8" s="7">
         <v>2</v>
@@ -1636,13 +1633,13 @@
         <v>2034</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1657,13 +1654,13 @@
         <v>101194</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H9" s="7">
         <v>238</v>
@@ -1672,13 +1669,13 @@
         <v>127830</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M9" s="7">
         <v>355</v>
@@ -1687,18 +1684,18 @@
         <v>229024</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -1710,13 +1707,13 @@
         <v>131021</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>342</v>
@@ -1725,13 +1722,13 @@
         <v>172751</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>519</v>
@@ -1740,13 +1737,13 @@
         <v>303771</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1761,13 +1758,13 @@
         <v>173634</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H11" s="7">
         <v>355</v>
@@ -1776,13 +1773,13 @@
         <v>220540</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M11" s="7">
         <v>557</v>
@@ -1791,13 +1788,13 @@
         <v>394174</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1812,13 +1809,13 @@
         <v>182559</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H12" s="7">
         <v>239</v>
@@ -1827,13 +1824,13 @@
         <v>156855</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>419</v>
@@ -1842,13 +1839,13 @@
         <v>339414</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1863,13 +1860,13 @@
         <v>40044</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H13" s="7">
         <v>44</v>
@@ -1878,13 +1875,13 @@
         <v>33556</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M13" s="7">
         <v>78</v>
@@ -1893,19 +1890,19 @@
         <v>73601</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7">
         <v>16</v>
@@ -1914,13 +1911,13 @@
         <v>19831</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="H14" s="7">
         <v>11</v>
@@ -1929,13 +1926,13 @@
         <v>6975</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="M14" s="7">
         <v>27</v>
@@ -1965,13 +1962,13 @@
         <v>547089</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H15" s="7">
         <v>991</v>
@@ -1980,13 +1977,13 @@
         <v>590677</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M15" s="7">
         <v>1600</v>
@@ -1995,13 +1992,13 @@
         <v>1137766</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2018,13 +2015,13 @@
         <v>215408</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H16" s="7">
         <v>421</v>
@@ -2033,13 +2030,13 @@
         <v>263428</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M16" s="7">
         <v>670</v>
@@ -2048,13 +2045,13 @@
         <v>478836</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2069,13 +2066,13 @@
         <v>298483</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H17" s="7">
         <v>588</v>
@@ -2084,10 +2081,10 @@
         <v>404699</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>117</v>
@@ -2141,7 +2138,7 @@
         <v>125</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>16</v>
+        <v>126</v>
       </c>
       <c r="M18" s="7">
         <v>750</v>
@@ -2150,13 +2147,13 @@
         <v>702680</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2171,13 +2168,13 @@
         <v>78024</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H19" s="7">
         <v>52</v>
@@ -2186,13 +2183,13 @@
         <v>44998</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="M19" s="7">
         <v>117</v>
@@ -2201,19 +2198,19 @@
         <v>123022</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="7">
         <v>19</v>
@@ -2222,13 +2219,13 @@
         <v>75493</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="H20" s="7">
         <v>18</v>
@@ -2237,13 +2234,13 @@
         <v>13999</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M20" s="7">
         <v>37</v>
@@ -2252,13 +2249,13 @@
         <v>89492</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2273,13 +2270,13 @@
         <v>1039248</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H21" s="7">
         <v>1514</v>
@@ -2288,13 +2285,13 @@
         <v>1057963</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M21" s="7">
         <v>2478</v>
@@ -2303,18 +2300,18 @@
         <v>2097212</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2326,13 +2323,13 @@
         <v>193365</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>325</v>
@@ -2341,13 +2338,13 @@
         <v>324372</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>527</v>
@@ -2356,13 +2353,13 @@
         <v>517737</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2377,13 +2374,13 @@
         <v>248302</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="H23" s="7">
         <v>358</v>
@@ -2392,13 +2389,13 @@
         <v>257168</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="M23" s="7">
         <v>587</v>
@@ -2407,13 +2404,13 @@
         <v>505469</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2428,13 +2425,13 @@
         <v>234117</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H24" s="7">
         <v>301</v>
@@ -2443,13 +2440,13 @@
         <v>237926</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M24" s="7">
         <v>505</v>
@@ -2458,13 +2455,13 @@
         <v>472043</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2479,13 +2476,13 @@
         <v>44338</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H25" s="7">
         <v>49</v>
@@ -2494,13 +2491,13 @@
         <v>40951</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M25" s="7">
         <v>85</v>
@@ -2509,19 +2506,19 @@
         <v>85289</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" s="7">
         <v>5</v>
@@ -2530,13 +2527,13 @@
         <v>8651</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="H26" s="7">
         <v>14</v>
@@ -2545,13 +2542,13 @@
         <v>13954</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M26" s="7">
         <v>19</v>
@@ -2560,13 +2557,13 @@
         <v>22605</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>190</v>
+        <v>143</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2581,13 +2578,13 @@
         <v>728772</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H27" s="7">
         <v>1047</v>
@@ -2596,13 +2593,13 @@
         <v>874371</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M27" s="7">
         <v>1723</v>
@@ -2611,18 +2608,18 @@
         <v>1603142</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2634,13 +2631,13 @@
         <v>296036</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="H28" s="7">
         <v>583</v>
@@ -2649,13 +2646,13 @@
         <v>386132</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>119</v>
+        <v>198</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M28" s="7">
         <v>913</v>
@@ -2664,13 +2661,13 @@
         <v>682168</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2685,13 +2682,13 @@
         <v>311263</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="H29" s="7">
         <v>548</v>
@@ -2700,13 +2697,13 @@
         <v>392712</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="M29" s="7">
         <v>877</v>
@@ -2715,13 +2712,13 @@
         <v>703975</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2736,13 +2733,13 @@
         <v>254997</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>171</v>
+        <v>214</v>
       </c>
       <c r="H30" s="7">
         <v>350</v>
@@ -2751,13 +2748,13 @@
         <v>295213</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>214</v>
+        <v>31</v>
       </c>
       <c r="M30" s="7">
         <v>612</v>
@@ -2766,13 +2763,13 @@
         <v>550210</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2787,13 +2784,13 @@
         <v>69386</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H31" s="7">
         <v>61</v>
@@ -2802,13 +2799,13 @@
         <v>56404</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M31" s="7">
         <v>116</v>
@@ -2817,19 +2814,19 @@
         <v>125790</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32" s="7">
         <v>29</v>
@@ -2838,13 +2835,13 @@
         <v>32842</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="H32" s="7">
         <v>16</v>
@@ -2853,13 +2850,13 @@
         <v>15207</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="M32" s="7">
         <v>45</v>
@@ -2868,13 +2865,13 @@
         <v>48048</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2889,13 +2886,13 @@
         <v>964524</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H33" s="7">
         <v>1558</v>
@@ -2904,13 +2901,13 @@
         <v>1145668</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M33" s="7">
         <v>2563</v>
@@ -2919,13 +2916,13 @@
         <v>2110192</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2942,13 +2939,13 @@
         <v>864839</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>235</v>
+        <v>35</v>
       </c>
       <c r="F34" s="7" t="s">
         <v>236</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>194</v>
+        <v>237</v>
       </c>
       <c r="H34" s="7">
         <v>1743</v>
@@ -2957,13 +2954,13 @@
         <v>1182155</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M34" s="7">
         <v>2737</v>
@@ -2972,13 +2969,13 @@
         <v>2046994</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>21</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2993,13 +2990,13 @@
         <v>1064746</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="H35" s="7">
         <v>1940</v>
@@ -3008,13 +3005,13 @@
         <v>1320327</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>247</v>
+        <v>199</v>
       </c>
       <c r="M35" s="7">
         <v>3058</v>
@@ -3023,10 +3020,10 @@
         <v>2385073</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>249</v>
+        <v>164</v>
       </c>
       <c r="Q35" s="7" t="s">
         <v>250</v>
@@ -3077,10 +3074,10 @@
         <v>257</v>
       </c>
       <c r="P36" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -3095,13 +3092,13 @@
         <v>239094</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="F37" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="F37" s="7" t="s">
+      <c r="G37" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="H37" s="7">
         <v>214</v>
@@ -3110,13 +3107,13 @@
         <v>182282</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>265</v>
       </c>
       <c r="M37" s="7">
         <v>412</v>
@@ -3125,19 +3122,19 @@
         <v>421377</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="P37" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q37" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" s="7">
         <v>71</v>
@@ -3146,13 +3143,13 @@
         <v>138851</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H38" s="7">
         <v>59</v>
@@ -3161,13 +3158,13 @@
         <v>50135</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K38" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L38" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M38" s="7">
         <v>130</v>
@@ -3176,13 +3173,13 @@
         <v>188986</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,13 +3194,13 @@
         <v>3380826</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H39" s="7">
         <v>5348</v>
@@ -3212,13 +3209,13 @@
         <v>3796510</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M39" s="7">
         <v>8719</v>
@@ -3227,18 +3224,18 @@
         <v>7177336</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36B17_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B17_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A827F8A6-59E6-4855-963C-A0B2C2B1997C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6C2F2164-2008-40A8-AE1C-8D843C5143E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FFD442A8-33FA-41DF-AA4B-2D64BBEC97A2}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{23979C28-3184-4DF5-8031-0B10CAFCF3B1}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="236">
   <si>
     <t>Población según el número de veces a la semana que consume patatas fritas y aperitivos salados en 2023 (Tasa respuesta: 99,73%)</t>
   </si>
@@ -65,802 +65,682 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Nunca o casi nunca</t>
   </si>
   <si>
-    <t>28,67%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>37,7%</t>
-  </si>
-  <si>
-    <t>27,75%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
+    <t>23,88%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>28,47%</t>
+  </si>
+  <si>
+    <t>Menos de 1 vez semana</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>34,5%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>Una/dos veces a la semana</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>27,87%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>30,66%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>33,16%</t>
+  </si>
+  <si>
+    <t>Tres o más veces a la semana</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>A diario</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>22,05%</t>
+  </si>
+  <si>
+    <t>24,82%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>35,47%</t>
+  </si>
+  <si>
+    <t>40,74%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>34,56%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>16,93%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>31,5%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>31,02%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>58,13%</t>
+  </si>
+  <si>
+    <t>33,96%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>33,66%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>32,31%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>36,7%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>28,99%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>34,72%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>33,75%</t>
+  </si>
+  <si>
+    <t>31,9%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>31,2%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>31,91%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>34,96%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>36,03%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>27,62%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>47,04%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>32,34%</t>
+  </si>
+  <si>
+    <t>27,85%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
   </si>
   <si>
     <t>28,16%</t>
   </si>
   <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>33,75%</t>
-  </si>
-  <si>
-    <t>Menos de 1 vez semana</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>29,26%</t>
-  </si>
-  <si>
-    <t>42,34%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
-  </si>
-  <si>
-    <t>Una/dos veces a la semana</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>37,22%</t>
-  </si>
-  <si>
-    <t>Tres o más veces a la semana</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>32,32%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>33,34%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>24,27%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
   </si>
   <si>
     <t>4,99%</t>
   </si>
   <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>A diario</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>26,7%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>29,37%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>34,16%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>38,11%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>20,73%</t>
-  </si>
-  <si>
-    <t>17,03%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>32,39%</t>
-  </si>
-  <si>
-    <t>38,25%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>35,78%</t>
-  </si>
-  <si>
-    <t>30,23%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>31,27%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>34,01%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>30,67%</t>
-  </si>
-  <si>
-    <t>35,91%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>37,1%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>47,4%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>34,72%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>32,12%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>30,69%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>33,82%</t>
-  </si>
-  <si>
-    <t>33,7%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>36,42%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>30,49%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>36,96%</t>
-  </si>
-  <si>
-    <t>33,36%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>26,07%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
   </si>
   <si>
     <t>5,48%</t>
   </si>
   <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>23,88%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>31,14%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>39,08%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>34,56%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>29,71%</t>
-  </si>
-  <si>
-    <t>33,66%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -1275,8 +1155,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87129A1-2861-430F-9F20-7AE943BE7199}">
-  <dimension ref="A1:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53FCFD04-2DE7-4980-9B27-BC94526FE655}">
+  <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1393,10 +1273,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>36</v>
+        <v>213</v>
       </c>
       <c r="D4" s="7">
-        <v>29010</v>
+        <v>150925</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1408,10 +1288,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>72</v>
+        <v>414</v>
       </c>
       <c r="I4" s="7">
-        <v>35472</v>
+        <v>193964</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1423,10 +1303,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>108</v>
+        <v>627</v>
       </c>
       <c r="N4" s="7">
-        <v>64482</v>
+        <v>344890</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1444,10 +1324,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>42</v>
+        <v>244</v>
       </c>
       <c r="D5" s="7">
-        <v>33064</v>
+        <v>202451</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1459,10 +1339,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>91</v>
+        <v>446</v>
       </c>
       <c r="I5" s="7">
-        <v>45209</v>
+        <v>247028</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1474,10 +1354,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>133</v>
+        <v>690</v>
       </c>
       <c r="N5" s="7">
-        <v>78273</v>
+        <v>449479</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1495,10 +1375,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>29</v>
+        <v>209</v>
       </c>
       <c r="D6" s="7">
-        <v>29783</v>
+        <v>212364</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1510,10 +1390,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>67</v>
+        <v>306</v>
       </c>
       <c r="I6" s="7">
-        <v>40776</v>
+        <v>186995</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1525,10 +1405,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>96</v>
+        <v>515</v>
       </c>
       <c r="N6" s="7">
-        <v>70559</v>
+        <v>399358</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1546,10 +1426,10 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="D7" s="7">
-        <v>7303</v>
+        <v>47755</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>41</v>
@@ -1561,10 +1441,10 @@
         <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="I7" s="7">
-        <v>6373</v>
+        <v>36546</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>44</v>
@@ -1576,70 +1456,70 @@
         <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="N7" s="7">
-        <v>13675</v>
+        <v>84301</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="D8" s="7">
-        <v>2034</v>
+        <v>18395</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>6308</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="N8" s="7">
-        <v>2034</v>
+        <v>24703</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1648,102 +1528,102 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>117</v>
+        <v>726</v>
       </c>
       <c r="D9" s="7">
-        <v>101194</v>
+        <v>631891</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
-        <v>238</v>
+        <v>1229</v>
       </c>
       <c r="I9" s="7">
-        <v>127830</v>
+        <v>670840</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
-        <v>355</v>
+        <v>1955</v>
       </c>
       <c r="N9" s="7">
-        <v>229024</v>
+        <v>1302731</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>177</v>
+        <v>249</v>
       </c>
       <c r="D10" s="7">
-        <v>131021</v>
+        <v>201080</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="H10" s="7">
-        <v>342</v>
+        <v>421</v>
       </c>
       <c r="I10" s="7">
-        <v>172751</v>
+        <v>237419</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M10" s="7">
-        <v>519</v>
+        <v>670</v>
       </c>
       <c r="N10" s="7">
-        <v>303771</v>
+        <v>438499</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1752,49 +1632,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>202</v>
+        <v>316</v>
       </c>
       <c r="D11" s="7">
-        <v>173634</v>
+        <v>280419</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H11" s="7">
-        <v>355</v>
+        <v>588</v>
       </c>
       <c r="I11" s="7">
-        <v>220540</v>
+        <v>363318</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M11" s="7">
-        <v>557</v>
+        <v>904</v>
       </c>
       <c r="N11" s="7">
-        <v>394174</v>
+        <v>643737</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1803,49 +1683,49 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>180</v>
+        <v>315</v>
       </c>
       <c r="D12" s="7">
-        <v>182559</v>
+        <v>373559</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H12" s="7">
-        <v>239</v>
+        <v>435</v>
       </c>
       <c r="I12" s="7">
-        <v>156855</v>
+        <v>303515</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M12" s="7">
-        <v>419</v>
+        <v>750</v>
       </c>
       <c r="N12" s="7">
-        <v>339414</v>
+        <v>677073</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1854,100 +1734,100 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="D13" s="7">
-        <v>40044</v>
+        <v>72514</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H13" s="7">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="I13" s="7">
-        <v>33556</v>
+        <v>40244</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="M13" s="7">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="N13" s="7">
-        <v>73601</v>
+        <v>112758</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D14" s="7">
-        <v>19831</v>
+        <v>265292</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H14" s="7">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I14" s="7">
-        <v>6975</v>
+        <v>12208</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="M14" s="7">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="N14" s="7">
-        <v>26806</v>
+        <v>277500</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1956,102 +1836,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>609</v>
+        <v>964</v>
       </c>
       <c r="D15" s="7">
-        <v>547089</v>
+        <v>1192864</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
-        <v>991</v>
+        <v>1514</v>
       </c>
       <c r="I15" s="7">
-        <v>590677</v>
+        <v>956704</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
-        <v>1600</v>
+        <v>2478</v>
       </c>
       <c r="N15" s="7">
-        <v>1137766</v>
+        <v>2149568</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>249</v>
+        <v>202</v>
       </c>
       <c r="D16" s="7">
-        <v>215408</v>
+        <v>187141</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
-        <v>421</v>
+        <v>325</v>
       </c>
       <c r="I16" s="7">
-        <v>263428</v>
+        <v>401717</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="M16" s="7">
-        <v>670</v>
+        <v>527</v>
       </c>
       <c r="N16" s="7">
-        <v>478836</v>
+        <v>588857</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2060,49 +1940,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>316</v>
+        <v>229</v>
       </c>
       <c r="D17" s="7">
-        <v>298483</v>
+        <v>239289</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H17" s="7">
-        <v>588</v>
+        <v>358</v>
       </c>
       <c r="I17" s="7">
-        <v>404699</v>
+        <v>235909</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="M17" s="7">
-        <v>904</v>
+        <v>587</v>
       </c>
       <c r="N17" s="7">
-        <v>703182</v>
+        <v>475198</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2111,49 +1991,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>315</v>
+        <v>204</v>
       </c>
       <c r="D18" s="7">
-        <v>371840</v>
+        <v>227674</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="H18" s="7">
-        <v>435</v>
+        <v>301</v>
       </c>
       <c r="I18" s="7">
-        <v>330840</v>
+        <v>247245</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="M18" s="7">
-        <v>750</v>
+        <v>505</v>
       </c>
       <c r="N18" s="7">
-        <v>702680</v>
+        <v>474918</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2162,100 +2042,100 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="D19" s="7">
-        <v>78024</v>
+        <v>43287</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H19" s="7">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I19" s="7">
-        <v>44998</v>
+        <v>36621</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="M19" s="7">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="N19" s="7">
-        <v>123022</v>
+        <v>79908</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
+        <v>5</v>
+      </c>
+      <c r="D20" s="7">
+        <v>7289</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H20" s="7">
+        <v>14</v>
+      </c>
+      <c r="I20" s="7">
+        <v>11875</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M20" s="7">
         <v>19</v>
       </c>
-      <c r="D20" s="7">
-        <v>75493</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="H20" s="7">
-        <v>18</v>
-      </c>
-      <c r="I20" s="7">
-        <v>13999</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="M20" s="7">
-        <v>37</v>
-      </c>
       <c r="N20" s="7">
-        <v>89492</v>
+        <v>19164</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2264,102 +2144,102 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>964</v>
+        <v>676</v>
       </c>
       <c r="D21" s="7">
-        <v>1039248</v>
+        <v>704680</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
-        <v>1514</v>
+        <v>1047</v>
       </c>
       <c r="I21" s="7">
-        <v>1057963</v>
+        <v>933366</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
-        <v>2478</v>
+        <v>1723</v>
       </c>
       <c r="N21" s="7">
-        <v>2097212</v>
+        <v>1638046</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>202</v>
+        <v>330</v>
       </c>
       <c r="D22" s="7">
-        <v>193365</v>
+        <v>281363</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="H22" s="7">
-        <v>325</v>
+        <v>583</v>
       </c>
       <c r="I22" s="7">
-        <v>324372</v>
+        <v>347691</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="M22" s="7">
-        <v>527</v>
+        <v>913</v>
       </c>
       <c r="N22" s="7">
-        <v>517737</v>
+        <v>629055</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2368,49 +2248,49 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
-        <v>229</v>
+        <v>329</v>
       </c>
       <c r="D23" s="7">
-        <v>248302</v>
+        <v>295475</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="H23" s="7">
-        <v>358</v>
+        <v>548</v>
       </c>
       <c r="I23" s="7">
-        <v>257168</v>
+        <v>355851</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="M23" s="7">
-        <v>587</v>
+        <v>877</v>
       </c>
       <c r="N23" s="7">
-        <v>505469</v>
+        <v>651325</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>164</v>
+        <v>126</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>165</v>
+        <v>14</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2419,49 +2299,49 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>204</v>
+        <v>262</v>
       </c>
       <c r="D24" s="7">
-        <v>234117</v>
+        <v>255728</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H24" s="7">
-        <v>301</v>
+        <v>350</v>
       </c>
       <c r="I24" s="7">
-        <v>237926</v>
+        <v>325203</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M24" s="7">
-        <v>505</v>
+        <v>612</v>
       </c>
       <c r="N24" s="7">
-        <v>472043</v>
+        <v>580932</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2470,100 +2350,100 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D25" s="7">
-        <v>44338</v>
+        <v>64112</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>177</v>
+        <v>48</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H25" s="7">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="I25" s="7">
-        <v>40951</v>
+        <v>48369</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M25" s="7">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="N25" s="7">
-        <v>85289</v>
+        <v>112481</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="D26" s="7">
-        <v>8651</v>
+        <v>29317</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>185</v>
+        <v>93</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H26" s="7">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I26" s="7">
-        <v>13954</v>
+        <v>12989</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M26" s="7">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="N26" s="7">
-        <v>22605</v>
+        <v>42306</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>143</v>
+        <v>193</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2572,102 +2452,102 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>676</v>
+        <v>1005</v>
       </c>
       <c r="D27" s="7">
-        <v>728772</v>
+        <v>925996</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
-        <v>1047</v>
+        <v>1558</v>
       </c>
       <c r="I27" s="7">
-        <v>874371</v>
+        <v>1090103</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
-        <v>1723</v>
+        <v>2563</v>
       </c>
       <c r="N27" s="7">
-        <v>1603142</v>
+        <v>2016099</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>193</v>
+        <v>3</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>330</v>
+        <v>994</v>
       </c>
       <c r="D28" s="7">
-        <v>296036</v>
+        <v>820511</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H28" s="7">
-        <v>583</v>
+        <v>1743</v>
       </c>
       <c r="I28" s="7">
-        <v>386132</v>
+        <v>1180791</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M28" s="7">
-        <v>913</v>
+        <v>2737</v>
       </c>
       <c r="N28" s="7">
-        <v>682168</v>
+        <v>2001302</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2676,13 +2556,13 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>329</v>
+        <v>1118</v>
       </c>
       <c r="D29" s="7">
-        <v>311263</v>
+        <v>1017634</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>203</v>
+        <v>32</v>
       </c>
       <c r="F29" s="7" t="s">
         <v>204</v>
@@ -2691,10 +2571,10 @@
         <v>205</v>
       </c>
       <c r="H29" s="7">
-        <v>548</v>
+        <v>1940</v>
       </c>
       <c r="I29" s="7">
-        <v>392712</v>
+        <v>1202105</v>
       </c>
       <c r="J29" s="7" t="s">
         <v>206</v>
@@ -2706,10 +2586,10 @@
         <v>208</v>
       </c>
       <c r="M29" s="7">
-        <v>877</v>
+        <v>3058</v>
       </c>
       <c r="N29" s="7">
-        <v>703975</v>
+        <v>2219740</v>
       </c>
       <c r="O29" s="7" t="s">
         <v>209</v>
@@ -2727,10 +2607,10 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>262</v>
+        <v>990</v>
       </c>
       <c r="D30" s="7">
-        <v>254997</v>
+        <v>1069325</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>212</v>
@@ -2742,10 +2622,10 @@
         <v>214</v>
       </c>
       <c r="H30" s="7">
-        <v>350</v>
+        <v>1392</v>
       </c>
       <c r="I30" s="7">
-        <v>295213</v>
+        <v>1062957</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>215</v>
@@ -2754,13 +2634,13 @@
         <v>216</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="M30" s="7">
-        <v>612</v>
+        <v>2382</v>
       </c>
       <c r="N30" s="7">
-        <v>550210</v>
+        <v>2132282</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>217</v>
@@ -2778,100 +2658,100 @@
         <v>40</v>
       </c>
       <c r="C31" s="7">
-        <v>55</v>
+        <v>198</v>
       </c>
       <c r="D31" s="7">
-        <v>69386</v>
+        <v>227669</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>220</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="H31" s="7">
+        <v>214</v>
+      </c>
+      <c r="I31" s="7">
+        <v>161779</v>
+      </c>
+      <c r="J31" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="H31" s="7">
-        <v>61</v>
-      </c>
-      <c r="I31" s="7">
-        <v>56404</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="K31" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="L31" s="7" t="s">
+      <c r="M31" s="7">
+        <v>412</v>
+      </c>
+      <c r="N31" s="7">
+        <v>389448</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>225</v>
       </c>
-      <c r="M31" s="7">
-        <v>116</v>
-      </c>
-      <c r="N31" s="7">
-        <v>125790</v>
-      </c>
-      <c r="O31" s="7" t="s">
+      <c r="P31" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="D32" s="7">
-        <v>32842</v>
+        <v>320293</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F32" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="G32" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="H32" s="7">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="I32" s="7">
-        <v>15207</v>
+        <v>43380</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>230</v>
+        <v>189</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>231</v>
       </c>
       <c r="L32" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="M32" s="7">
+        <v>130</v>
+      </c>
+      <c r="N32" s="7">
+        <v>363673</v>
+      </c>
+      <c r="O32" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="M32" s="7">
-        <v>45</v>
-      </c>
-      <c r="N32" s="7">
-        <v>48048</v>
-      </c>
-      <c r="O32" s="7" t="s">
+      <c r="P32" s="7" t="s">
         <v>233</v>
       </c>
-      <c r="P32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2880,370 +2760,61 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>1005</v>
+        <v>3371</v>
       </c>
       <c r="D33" s="7">
-        <v>964524</v>
+        <v>3455432</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7">
-        <v>1558</v>
+        <v>5348</v>
       </c>
       <c r="I33" s="7">
-        <v>1145668</v>
+        <v>3651012</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
-        <v>2563</v>
+        <v>8719</v>
       </c>
       <c r="N33" s="7">
-        <v>2110192</v>
+        <v>7106444</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="7">
-        <v>994</v>
-      </c>
-      <c r="D34" s="7">
-        <v>864839</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="H34" s="7">
-        <v>1743</v>
-      </c>
-      <c r="I34" s="7">
-        <v>1182155</v>
-      </c>
-      <c r="J34" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="M34" s="7">
-        <v>2737</v>
-      </c>
-      <c r="N34" s="7">
-        <v>2046994</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="1"/>
-      <c r="B35" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" s="7">
-        <v>1118</v>
-      </c>
-      <c r="D35" s="7">
-        <v>1064746</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="H35" s="7">
-        <v>1940</v>
-      </c>
-      <c r="I35" s="7">
-        <v>1320327</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="M35" s="7">
-        <v>3058</v>
-      </c>
-      <c r="N35" s="7">
-        <v>2385073</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="7">
-        <v>990</v>
-      </c>
-      <c r="D36" s="7">
-        <v>1073296</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G36" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="H36" s="7">
-        <v>1392</v>
-      </c>
-      <c r="I36" s="7">
-        <v>1061610</v>
-      </c>
-      <c r="J36" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="K36" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L36" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="M36" s="7">
-        <v>2382</v>
-      </c>
-      <c r="N36" s="7">
-        <v>2134906</v>
-      </c>
-      <c r="O36" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="7">
-        <v>198</v>
-      </c>
-      <c r="D37" s="7">
-        <v>239094</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>260</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="H37" s="7">
-        <v>214</v>
-      </c>
-      <c r="I37" s="7">
-        <v>182282</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="M37" s="7">
-        <v>412</v>
-      </c>
-      <c r="N37" s="7">
-        <v>421377</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="7">
-        <v>71</v>
-      </c>
-      <c r="D38" s="7">
-        <v>138851</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="F38" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="H38" s="7">
-        <v>59</v>
-      </c>
-      <c r="I38" s="7">
-        <v>50135</v>
-      </c>
-      <c r="J38" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="M38" s="7">
-        <v>130</v>
-      </c>
-      <c r="N38" s="7">
-        <v>188986</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C39" s="7">
-        <v>3371</v>
-      </c>
-      <c r="D39" s="7">
-        <v>3380826</v>
-      </c>
-      <c r="E39" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="H39" s="7">
-        <v>5348</v>
-      </c>
-      <c r="I39" s="7">
-        <v>3796510</v>
-      </c>
-      <c r="J39" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="K39" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L39" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="M39" s="7">
-        <v>8719</v>
-      </c>
-      <c r="N39" s="7">
-        <v>7177336</v>
-      </c>
-      <c r="O39" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P39" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q39" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>275</v>
+      <c r="A34" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="A28:A33"/>
-    <mergeCell ref="A34:A39"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
